--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
   <si>
     <t>Milion Cycles</t>
   </si>
@@ -137,7 +137,10 @@
     <t>Slowdown</t>
   </si>
   <si>
-    <t>my</t>
+    <t>FOOTPRINT</t>
+  </si>
+  <si>
+    <t>TLB miss %</t>
   </si>
   <si>
     <t>TLB access</t>
@@ -146,21 +149,67 @@
     <t>TLB miss</t>
   </si>
   <si>
-    <t>TLB miss %</t>
+    <t>:</t>
+  </si>
+  <si>
+    <t>SSCA_s20</t>
+  </si>
+  <si>
+    <t>GUPS</t>
+  </si>
+  <si>
+    <t>TLB same Page</t>
+  </si>
+  <si>
+    <t>OS_TLB_HIT</t>
+  </si>
+  <si>
+    <t>OS_TLB_MISS</t>
+  </si>
+  <si>
+    <t>Page Switch</t>
+  </si>
+  <si>
+    <t>Same Page%</t>
+  </si>
+  <si>
+    <t>ROB Waiting Cycles</t>
+  </si>
+  <si>
+    <t>1ch</t>
+  </si>
+  <si>
+    <t>16ch</t>
+  </si>
+  <si>
+    <t>PIMmiss1-16</t>
+  </si>
+  <si>
+    <t>PIMmiss8-16</t>
+  </si>
+  <si>
+    <t>Avg Waiting N</t>
+  </si>
+  <si>
+    <t>Avg Waiting R</t>
+  </si>
+  <si>
+    <t>Avg Waiting W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="[HH]:MM:SS"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,6 +238,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -259,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,6 +377,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -329,26 +398,26 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFC5000B"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF7E0021"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF336600"/>
+      <rgbColor rgb="FF000033"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF006699"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF330066"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -372,7 +441,7 @@
       <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF950E"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFDD4814"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
@@ -922,7 +991,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0.892047326052338</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.94037340723453</c:v>
@@ -1118,7 +1187,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0.892047326052338</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.94346279184226</c:v>
@@ -1314,7 +1383,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0.892047326052338</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.94062056671173</c:v>
@@ -1510,7 +1579,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>0.889986371524736</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.93834317317677</c:v>
@@ -2358,11 +2427,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="67446340"/>
-        <c:axId val="4161463"/>
+        <c:axId val="60955273"/>
+        <c:axId val="53406121"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67446340"/>
+        <c:axId val="60955273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,14 +2476,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4161463"/>
+        <c:crossAx val="53406121"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4161463"/>
+        <c:axId val="53406121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2528,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67446340"/>
+        <c:crossAx val="60955273"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2508,11 +2577,1287 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$73</c:f>
+              <c:f>Sheet1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TLB miss</c:v>
+                  <c:v>1ch (CPU)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000033"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16ch (Perfect PIM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0066cc"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.31305984205744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.34082401302406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39759092566623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.34524358627932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.03635126619925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.97157171099329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.34524358627932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM1-16(miss)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="336600"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.07232843956261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10961524522571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1532166412316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.94037340723453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.82216051808989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.892047326052338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.94037340723453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM8-16(miss)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.12198566563442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.11143496324678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.15745353623399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.93834317317677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.81825787902994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.889986371524736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93834317317677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM1-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.139106711112306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.139621282233778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.148948627856646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.208213897396978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.383472888216274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.149622722071669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.208213897396978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM8-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.141942257196987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.144655969596895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.151356077800576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.208989899294119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.383827168780608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.149653930393403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.208989899294119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="14300603"/>
+        <c:axId val="11445990"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14300603"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Benchmarks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="11445990"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11445990"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="14300603"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ch (CPU)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c5000b"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$32:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16ch (Perfect PIM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff6666"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$33:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.95713917522054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65852737250527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.51250981200626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96294191480364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.97735217540076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.91214677428799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.41910696595216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM1-16(miss)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="dd4814"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$34:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4126449706913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25753666432498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45610862888353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8377848929869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.87543554622317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.74553274635559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29418302972588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM8-16(miss)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="330066"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$37:$R$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.41511200522364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.27174112450239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.51063141471765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.84443823971982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.88241967443988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.74327232496382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.30534983378362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM1-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.13030189883903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.713900106020179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3304758743224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.53395133761757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.15127513773744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51827284749897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.739547952648557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PIM8-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$41:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.13290062887797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.730718700869273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.364436628560621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.53395133761757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.15127513773744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51827284749897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.739547952648557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="67433662"/>
+        <c:axId val="74868869"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67433662"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Benchmarks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="74868869"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74868869"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="67433662"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$188</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Page Switch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2527,184 +3872,70 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$71:$AB$71</c:f>
+              <c:f>Sheet1!$C$183:$I$183</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>graph_s6</c:v>
+                  <c:v>graph_s14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>graph_s7</c:v>
+                  <c:v>graph_s17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>graph_s8</c:v>
+                  <c:v>SSCA_s20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>graph_s14</c:v>
+                  <c:v>GUPS</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>graph_s17</c:v>
+                  <c:v>astar</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssca_s10</c:v>
+                  <c:v>bzip2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ssca_s20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>gups</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>astar</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>bzip2</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>bwaves</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>cactusADM</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>dealII</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>gamess</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>gobmk</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>gromacs</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>h264</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>hmmer</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>perlbench</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>zeusmp</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>gcc</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>GemsFDTD</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>lbm</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>mcf</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>soplex</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>omnetpp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$74:$AB$74</c:f>
+              <c:f>Sheet1!$C$188:$I$188</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.273009520355593</c:v>
+                  <c:v>32.0151826971207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.257245244399885</c:v>
+                  <c:v>16.8682209982937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.281344875495175</c:v>
+                  <c:v>45.9131682435008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0149271273644349</c:v>
+                  <c:v>38.8494908305177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0471892867189461</c:v>
+                  <c:v>63.4392673015103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.02881007563608</c:v>
+                  <c:v>63.3144232629134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.00239942149373</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.30009194254201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.5499484442288</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.3689138038057</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.45041094232823</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.34961235577804</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.13800034622709</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.25888321308335</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.4077183589046</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.13696001989391</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.87561173385137</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.04540640370342</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26.6567270044971</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.8058543477081</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
+                  <c:v>94.4535307615364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="61541696"/>
-        <c:axId val="38011861"/>
+        <c:axId val="27994796"/>
+        <c:axId val="58383401"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61541696"/>
+        <c:axId val="27994796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,14 +3951,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="38011861"/>
+        <c:crossAx val="58383401"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38011861"/>
+        <c:axId val="58383401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +3983,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61541696"/>
+        <c:crossAx val="27994796"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2765,6 +3996,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2785,20 +4018,1044 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOOTPRINT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gups</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>cactusADM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>gamess</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gromacs</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$AB$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="20772189"/>
+        <c:axId val="71250096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="20772189"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71250096"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71250096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="20772189"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TLB miss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$118:$AB$118</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gups</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>cactusADM</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>gamess</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>gromacs</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$121:$AB$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.273009520355593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.257245244399885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.281344875495175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0149271273644349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0471892867189461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.02881007563608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00239942149373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.30009194254201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.5499484442288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.3689138038057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.45041094232823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.34961235577804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.13800034622709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.25888321308335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.4077183589046</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.13696001989391</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.87561173385137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.04540640370342</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.6567270044971</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.8058543477081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="62053971"/>
+        <c:axId val="64908766"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62053971"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64908766"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64908766"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="62053971"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1200">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Graph Benchmarks TLB miss Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TLB miss %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="cc9900"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>graph_s6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>graph_s7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>graph_s8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graph_s14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graph_s17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssca_s20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.73009520355593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.57245244399885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.81344875495175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.49271273644349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71892867189461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0239942149373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.30009194254201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="86307581"/>
+        <c:axId val="15879250"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86307581"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Bechmarks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="15879250"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15879250"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TLB Miss Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86307581"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TLB miss %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="006699"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>perlbench</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$42:$R$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>33.5499484442288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.3689138038057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45041094232823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.87561173385137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04540640370342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.6567270044971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8058543477081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="47343835"/>
+        <c:axId val="97985044"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="47343835"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Bechmarks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="97985044"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97985044"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1100">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TLB Miss Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="47343835"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:colOff>209160</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:colOff>178560</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2806,8 +5063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="167040" y="4441320"/>
-        <a:ext cx="20370960" cy="5443560"/>
+        <a:off x="209160" y="12904920"/>
+        <a:ext cx="20382480" cy="3357000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2819,16 +5076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>709560</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2836,12 +5093,192 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1798920" y="12477960"/>
-        <a:ext cx="17698320" cy="3238560"/>
+        <a:off x="150840" y="6891480"/>
+        <a:ext cx="10515600" cy="5943600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10712520" y="6954480"/>
+        <a:ext cx="10515600" cy="5943600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151560</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112680</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="151560" y="30970080"/>
+        <a:ext cx="7369560" cy="3238920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>267120</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>186480</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="267120" y="16444800"/>
+        <a:ext cx="20332440" cy="2310120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127440</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>663840</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="127440" y="27127440"/>
+        <a:ext cx="17698320" cy="2271600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>166680</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174960</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="166680" y="20460240"/>
+        <a:ext cx="8229600" cy="5486400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>227520</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>329400</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8448840" y="20499120"/>
+        <a:ext cx="8229600" cy="5486400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2855,10 +5292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB74"/>
+  <dimension ref="A1:AB228"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y8" activeCellId="0" sqref="Y8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J165" activeCellId="0" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -3139,7 +5576,9 @@
         <v>86.585593</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="n">
+        <v>194.046356</v>
+      </c>
       <c r="J5" s="5" t="n">
         <v>21.60001</v>
       </c>
@@ -3210,7 +5649,9 @@
         <v>86.771437</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="8" t="n">
+        <v>194.046356</v>
+      </c>
       <c r="J6" s="5" t="n">
         <v>21.565674</v>
       </c>
@@ -3281,7 +5722,9 @@
         <v>86.771437</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="8" t="n">
+        <v>194.046356</v>
+      </c>
       <c r="J7" s="5" t="n">
         <v>21.597259</v>
       </c>
@@ -3352,7 +5795,9 @@
         <v>86.771437</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="n">
+        <v>194.495712</v>
+      </c>
       <c r="J8" s="5" t="n">
         <v>21.622634</v>
       </c>
@@ -4023,9 +6468,9 @@
         <f aca="false">H3/H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="5" t="e">
+      <c r="I17" s="5" t="n">
         <f aca="false">I3/I5</f>
-        <v>#DIV/0!</v>
+        <v>0.892047326052338</v>
       </c>
       <c r="J17" s="5" t="n">
         <f aca="false">J3/J5</f>
@@ -4133,9 +6578,9 @@
         <f aca="false">H3/H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="5" t="e">
+      <c r="I18" s="5" t="n">
         <f aca="false">I3/I6</f>
-        <v>#DIV/0!</v>
+        <v>0.892047326052338</v>
       </c>
       <c r="J18" s="5" t="n">
         <f aca="false">J3/J6</f>
@@ -4243,9 +6688,9 @@
         <f aca="false">H3/H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="5" t="e">
+      <c r="I19" s="5" t="n">
         <f aca="false">I3/I7</f>
-        <v>#DIV/0!</v>
+        <v>0.892047326052338</v>
       </c>
       <c r="J19" s="5" t="n">
         <f aca="false">J3/J7</f>
@@ -4353,9 +6798,9 @@
         <f aca="false">H3/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="5" t="e">
+      <c r="I20" s="5" t="n">
         <f aca="false">I3/I8</f>
-        <v>#DIV/0!</v>
+        <v>0.889986371524736</v>
       </c>
       <c r="J20" s="5" t="n">
         <f aca="false">J3/J8</f>
@@ -4874,377 +7319,1847 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R29" s="0" t="s">
+    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>678</v>
+      </c>
     </row>
-    <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="s">
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="K30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0"/>
-      <c r="C71" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>1.31305984205744</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>1.34082401302406</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>1.39759092566623</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>2.34524358627932</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>2.03635126619925</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>1.97157171099329</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>2.34524358627932</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="5" t="n">
+        <v>1.95713917522054</v>
+      </c>
+      <c r="M33" s="5" t="n">
+        <v>1.65852737250527</v>
+      </c>
+      <c r="N33" s="5" t="n">
+        <v>1.51250981200626</v>
+      </c>
+      <c r="O33" s="5" t="n">
+        <v>1.96294191480364</v>
+      </c>
+      <c r="P33" s="5" t="n">
+        <v>1.97735217540076</v>
+      </c>
+      <c r="Q33" s="5" t="n">
+        <v>1.91214677428799</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>1.41910696595216</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1.07232843956261</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.10961524522571</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1.1532166412316</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1.94037340723453</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.82216051808989</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>0.892047326052338</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>1.94037340723453</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="5" t="n">
+        <v>1.4126449706913</v>
+      </c>
+      <c r="M34" s="5" t="n">
+        <v>1.25753666432498</v>
+      </c>
+      <c r="N34" s="5" t="n">
+        <v>1.45610862888353</v>
+      </c>
+      <c r="O34" s="5" t="n">
+        <v>1.8377848929869</v>
+      </c>
+      <c r="P34" s="5" t="n">
+        <v>1.87543554622317</v>
+      </c>
+      <c r="Q34" s="5" t="n">
+        <v>1.74553274635559</v>
+      </c>
+      <c r="R34" s="5" t="n">
+        <v>1.29418302972588</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>1.08523665115839</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1.09641922634064</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>1.14164206517097</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1.94346279184226</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.81825787902994</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>0.892047326052338</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>1.94346279184226</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="5" t="n">
+        <v>1.41526702924685</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>1.26119034676737</v>
+      </c>
+      <c r="N35" s="5" t="n">
+        <v>1.46604274301016</v>
+      </c>
+      <c r="O35" s="5" t="n">
+        <v>1.8377848929869</v>
+      </c>
+      <c r="P35" s="5" t="n">
+        <v>1.87543554622317</v>
+      </c>
+      <c r="Q35" s="5" t="n">
+        <v>1.74466415752681</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>1.29494127887058</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.07289324230468</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1.10134184552128</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>1.14662251235346</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>1.94062056671173</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.81825787902994</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>0.892047326052338</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>1.94062056671173</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>1.41388351122213</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>1.26276408274944</v>
+      </c>
+      <c r="N36" s="5" t="n">
+        <v>1.48318685087808</v>
+      </c>
+      <c r="O36" s="5" t="n">
+        <v>1.8377848929869</v>
+      </c>
+      <c r="P36" s="5" t="n">
+        <v>1.87543554622317</v>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>1.74267552727038</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>1.29745215852356</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>1.12198566563442</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>1.11143496324678</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>1.15745353623399</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1.93834317317677</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.81825787902994</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>0.889986371524736</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>1.93834317317677</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="5" t="n">
+        <v>1.41511200522364</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>1.27174112450239</v>
+      </c>
+      <c r="N37" s="5" t="n">
+        <v>1.51063141471765</v>
+      </c>
+      <c r="O37" s="5" t="n">
+        <v>1.84443823971982</v>
+      </c>
+      <c r="P37" s="5" t="n">
+        <v>1.88241967443988</v>
+      </c>
+      <c r="Q37" s="5" t="n">
+        <v>1.74327232496382</v>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>1.30534983378362</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0.139106711112306</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>0.139621282233778</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0.148948627856646</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0.208213897396978</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>0.383472888216274</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>0.149622722071669</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>0.208213897396978</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="5" t="n">
+        <v>1.13030189883903</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>0.713900106020179</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <v>0.3304758743224</v>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>1.53395133761757</v>
+      </c>
+      <c r="P38" s="5" t="n">
+        <v>1.15127513773744</v>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>1.51827284749897</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>0.739547952648557</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.139106711112306</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>0.140246318074672</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0.148759861505572</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0.207983143236636</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>0.383472888216274</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>0.149653930393403</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>0.207983143236636</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="5" t="n">
+        <v>1.13190932006658</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>0.717166684329797</v>
+      </c>
+      <c r="N39" s="5" t="n">
+        <v>0.336530666160057</v>
+      </c>
+      <c r="O39" s="5" t="n">
+        <v>1.53395133761757</v>
+      </c>
+      <c r="P39" s="5" t="n">
+        <v>1.15127513773744</v>
+      </c>
+      <c r="Q39" s="5" t="n">
+        <v>1.51827284749897</v>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>0.739547952648557</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.138869921807239</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.142371608115885</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.148278994493073</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0.208110221408727</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>0.383472888216274</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>0.149653930393403</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>0.208110221408727</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" s="5" t="n">
+        <v>1.13326246968829</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>0.723563948294174</v>
+      </c>
+      <c r="N40" s="5" t="n">
+        <v>0.347829063003798</v>
+      </c>
+      <c r="O40" s="5" t="n">
+        <v>1.53395133761757</v>
+      </c>
+      <c r="P40" s="5" t="n">
+        <v>1.15127513773744</v>
+      </c>
+      <c r="Q40" s="5" t="n">
+        <v>1.51827284749897</v>
+      </c>
+      <c r="R40" s="5" t="n">
+        <v>0.739547952648557</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.141942257196987</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>0.144655969596895</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0.151356077800576</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0.208989899294119</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>0.383827168780608</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>0.149653930393403</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>0.208989899294119</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="5" t="n">
+        <v>1.13290062887797</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>0.730718700869273</v>
+      </c>
+      <c r="N41" s="5" t="n">
+        <v>0.364436628560621</v>
+      </c>
+      <c r="O41" s="5" t="n">
+        <v>1.53395133761757</v>
+      </c>
+      <c r="P41" s="5" t="n">
+        <v>1.15127513773744</v>
+      </c>
+      <c r="Q41" s="5" t="n">
+        <v>1.51827284749897</v>
+      </c>
+      <c r="R41" s="5" t="n">
+        <v>0.739547952648557</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="12" t="n">
+        <v>2.73009520355593</v>
+      </c>
+      <c r="D42" s="12" t="n">
+        <v>2.57245244399885</v>
+      </c>
+      <c r="E42" s="12" t="n">
+        <v>2.81344875495175</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>2.49271273644349</v>
+      </c>
+      <c r="G42" s="12" t="n">
+        <v>2.71892867189461</v>
+      </c>
+      <c r="H42" s="12" t="n">
+        <v>10.0239942149373</v>
+      </c>
+      <c r="I42" s="12" t="n">
+        <v>4.30009194254201</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="12" t="n">
+        <v>33.5499484442288</v>
+      </c>
+      <c r="M42" s="12" t="n">
+        <v>26.3689138038057</v>
+      </c>
+      <c r="N42" s="12" t="n">
+        <v>1.45041094232823</v>
+      </c>
+      <c r="O42" s="12" t="n">
+        <v>8.87561173385137</v>
+      </c>
+      <c r="P42" s="12" t="n">
+        <v>1.04540640370342</v>
+      </c>
+      <c r="Q42" s="12" t="n">
+        <v>26.6567270044971</v>
+      </c>
+      <c r="R42" s="12" t="n">
+        <v>10.8058543477081</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0"/>
+      <c r="C118" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I118" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J118" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="K118" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="L71" s="0" t="s">
+      <c r="L118" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="0" t="s">
+      <c r="M118" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="N71" s="0" t="s">
+      <c r="N118" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="O71" s="0" t="s">
+      <c r="O118" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="P71" s="0" t="s">
+      <c r="P118" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="Q71" s="0" t="s">
+      <c r="Q118" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="R71" s="0" t="s">
+      <c r="R118" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="S71" s="0" t="s">
+      <c r="S118" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="T71" s="0" t="s">
+      <c r="T118" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="U71" s="0" t="s">
+      <c r="U118" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="V71" s="0" t="s">
+      <c r="V118" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="W71" s="0" t="s">
+      <c r="W118" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="X71" s="0" t="s">
+      <c r="X118" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y71" s="0" t="s">
+      <c r="Y118" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Z71" s="0" t="s">
+      <c r="Z118" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AA71" s="0" t="s">
+      <c r="AA118" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AB71" s="0" t="s">
+      <c r="AB118" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="s">
+    <row r="119" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="13" t="n">
+        <v>15209726</v>
+      </c>
+      <c r="D119" s="13" t="n">
+        <v>31947335</v>
+      </c>
+      <c r="E119" s="13" t="n">
+        <v>65162374</v>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>59991449</v>
+      </c>
+      <c r="G119" s="13" t="n">
+        <v>166264433</v>
+      </c>
+      <c r="H119" s="13" t="n">
+        <v>187024778</v>
+      </c>
+      <c r="I119" s="13" t="n">
+        <v>195893469</v>
+      </c>
+      <c r="J119" s="13" t="n">
+        <v>20083195</v>
+      </c>
+      <c r="K119" s="13" t="n">
+        <v>4121750</v>
+      </c>
+      <c r="L119" s="13" t="n">
+        <v>8307919</v>
+      </c>
+      <c r="M119" s="13" t="n">
+        <v>4032926</v>
+      </c>
+      <c r="N119" s="13" t="n">
+        <v>6961925</v>
+      </c>
+      <c r="O119" s="13" t="n">
+        <v>2079560</v>
+      </c>
+      <c r="P119" s="13" t="n">
+        <v>711989</v>
+      </c>
+      <c r="Q119" s="13" t="n">
+        <v>1726481</v>
+      </c>
+      <c r="R119" s="13" t="n">
+        <v>2075007</v>
+      </c>
+      <c r="S119" s="13" t="n">
+        <v>2063193</v>
+      </c>
+      <c r="T119" s="13" t="n">
+        <v>5600884</v>
+      </c>
+      <c r="U119" s="13" t="n">
+        <v>1976593</v>
+      </c>
+      <c r="V119" s="13" t="n">
+        <v>6834647</v>
+      </c>
+      <c r="W119" s="13"/>
+      <c r="X119" s="13"/>
+      <c r="Y119" s="13"/>
+      <c r="Z119" s="13"/>
+      <c r="AA119" s="13"/>
+      <c r="AB119" s="13"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="13" t="n">
+        <v>41524</v>
+      </c>
+      <c r="D120" s="13" t="n">
+        <v>82183</v>
+      </c>
+      <c r="E120" s="13" t="n">
+        <v>183331</v>
+      </c>
+      <c r="F120" s="13" t="n">
+        <v>8955</v>
+      </c>
+      <c r="G120" s="13" t="n">
+        <v>78459</v>
+      </c>
+      <c r="H120" s="13" t="n">
+        <v>16886112</v>
+      </c>
+      <c r="I120" s="13" t="n">
+        <v>1963635</v>
+      </c>
+      <c r="J120" s="13" t="n">
+        <v>261100</v>
+      </c>
+      <c r="K120" s="13" t="n">
+        <v>1382845</v>
+      </c>
+      <c r="L120" s="13" t="n">
+        <v>2190708</v>
+      </c>
+      <c r="M120" s="13" t="n">
+        <v>58494</v>
+      </c>
+      <c r="N120" s="13" t="n">
+        <v>93959</v>
+      </c>
+      <c r="O120" s="13" t="n">
+        <v>44461</v>
+      </c>
+      <c r="P120" s="13" t="n">
+        <v>16083</v>
+      </c>
+      <c r="Q120" s="13" t="n">
+        <v>386865</v>
+      </c>
+      <c r="R120" s="13" t="n">
+        <v>23592</v>
+      </c>
+      <c r="S120" s="13" t="n">
+        <v>183121</v>
+      </c>
+      <c r="T120" s="13" t="n">
+        <v>58552</v>
+      </c>
+      <c r="U120" s="13" t="n">
+        <v>526895</v>
+      </c>
+      <c r="V120" s="13" t="n">
+        <v>738542</v>
+      </c>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="12" t="n">
-        <v>15209726</v>
-      </c>
-      <c r="D72" s="12" t="n">
-        <v>31947335</v>
-      </c>
-      <c r="E72" s="12" t="n">
-        <v>65162374</v>
-      </c>
-      <c r="F72" s="12" t="n">
+      <c r="C121" s="12" t="n">
+        <f aca="false">C120/C119*100</f>
+        <v>0.273009520355593</v>
+      </c>
+      <c r="D121" s="12" t="n">
+        <f aca="false">D120/D119*100</f>
+        <v>0.257245244399885</v>
+      </c>
+      <c r="E121" s="12" t="n">
+        <f aca="false">E120/E119*100</f>
+        <v>0.281344875495175</v>
+      </c>
+      <c r="F121" s="12" t="n">
+        <f aca="false">F120/F119*100</f>
+        <v>0.0149271273644349</v>
+      </c>
+      <c r="G121" s="12" t="n">
+        <f aca="false">G120/G119*100</f>
+        <v>0.0471892867189461</v>
+      </c>
+      <c r="H121" s="12" t="n">
+        <f aca="false">H120/H119*100</f>
+        <v>9.02881007563608</v>
+      </c>
+      <c r="I121" s="12" t="n">
+        <f aca="false">I120/I119*100</f>
+        <v>1.00239942149373</v>
+      </c>
+      <c r="J121" s="12" t="n">
+        <f aca="false">J120/J119*100</f>
+        <v>1.30009194254201</v>
+      </c>
+      <c r="K121" s="12" t="n">
+        <f aca="false">K120/K119*100</f>
+        <v>33.5499484442288</v>
+      </c>
+      <c r="L121" s="12" t="n">
+        <f aca="false">L120/L119*100</f>
+        <v>26.3689138038057</v>
+      </c>
+      <c r="M121" s="12" t="n">
+        <f aca="false">M120/M119*100</f>
+        <v>1.45041094232823</v>
+      </c>
+      <c r="N121" s="12" t="n">
+        <f aca="false">N120/N119*100</f>
+        <v>1.34961235577804</v>
+      </c>
+      <c r="O121" s="12" t="n">
+        <f aca="false">O120/O119*100</f>
+        <v>2.13800034622709</v>
+      </c>
+      <c r="P121" s="12" t="n">
+        <f aca="false">P120/P119*100</f>
+        <v>2.25888321308335</v>
+      </c>
+      <c r="Q121" s="12" t="n">
+        <f aca="false">Q120/Q119*100</f>
+        <v>22.4077183589046</v>
+      </c>
+      <c r="R121" s="12" t="n">
+        <f aca="false">R120/R119*100</f>
+        <v>1.13696001989391</v>
+      </c>
+      <c r="S121" s="12" t="n">
+        <f aca="false">S120/S119*100</f>
+        <v>8.87561173385137</v>
+      </c>
+      <c r="T121" s="12" t="n">
+        <f aca="false">T120/T119*100</f>
+        <v>1.04540640370342</v>
+      </c>
+      <c r="U121" s="12" t="n">
+        <f aca="false">U120/U119*100</f>
+        <v>26.6567270044971</v>
+      </c>
+      <c r="V121" s="12" t="n">
+        <f aca="false">V120/V119*100</f>
+        <v>10.8058543477081</v>
+      </c>
+      <c r="W121" s="12" t="e">
+        <f aca="false">W120/W119*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X121" s="12" t="e">
+        <f aca="false">X120/X119*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y121" s="12" t="e">
+        <f aca="false">Y120/Y119*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z121" s="12" t="e">
+        <f aca="false">Z120/Z119*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA121" s="12" t="e">
+        <f aca="false">AA120/AA119*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB121" s="12" t="e">
+        <f aca="false">AB120/AB119*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0"/>
+      <c r="K147" s="15"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0"/>
+      <c r="N148" s="15"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0"/>
+      <c r="K153" s="15"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0"/>
+      <c r="N154" s="15"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0"/>
+      <c r="K159" s="15"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0"/>
+      <c r="N160" s="15"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0"/>
+      <c r="K165" s="15"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0"/>
+      <c r="N166" s="15"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0"/>
+      <c r="K171" s="15"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0"/>
+      <c r="N172" s="15"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0"/>
+      <c r="K177" s="15"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0"/>
+      <c r="N178" s="15"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K183" s="15"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" s="0" t="n">
         <v>59991449</v>
       </c>
-      <c r="G72" s="12" t="n">
+      <c r="D184" s="0" t="n">
         <v>166264433</v>
       </c>
-      <c r="H72" s="12" t="n">
-        <v>187024778</v>
-      </c>
-      <c r="I72" s="12" t="n">
+      <c r="E184" s="0" t="n">
         <v>195893469</v>
       </c>
-      <c r="J72" s="12" t="n">
+      <c r="F184" s="0" t="n">
         <v>20083195</v>
       </c>
-      <c r="K72" s="12" t="n">
+      <c r="G184" s="0" t="n">
         <v>4121750</v>
       </c>
-      <c r="L72" s="12" t="n">
+      <c r="H184" s="0" t="n">
         <v>8307919</v>
       </c>
-      <c r="M72" s="12" t="n">
+      <c r="I184" s="0" t="n">
         <v>4032926</v>
       </c>
-      <c r="N72" s="12" t="n">
-        <v>6961925</v>
-      </c>
-      <c r="O72" s="12" t="n">
-        <v>2079560</v>
-      </c>
-      <c r="P72" s="12" t="n">
-        <v>711989</v>
-      </c>
-      <c r="Q72" s="12" t="n">
-        <v>1726481</v>
-      </c>
-      <c r="R72" s="12" t="n">
-        <v>2075007</v>
-      </c>
-      <c r="S72" s="12" t="n">
-        <v>2063193</v>
-      </c>
-      <c r="T72" s="12" t="n">
-        <v>5600884</v>
-      </c>
-      <c r="U72" s="12" t="n">
-        <v>1976593</v>
-      </c>
-      <c r="V72" s="12" t="n">
-        <v>6834647</v>
-      </c>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
+      <c r="N184" s="15"/>
     </row>
-    <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="12" t="n">
-        <v>41524</v>
-      </c>
-      <c r="D73" s="12" t="n">
-        <v>82183</v>
-      </c>
-      <c r="E73" s="12" t="n">
-        <v>183331</v>
-      </c>
-      <c r="F73" s="12" t="n">
+    <row r="185" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>40776122</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>138140122</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>103988936</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>12019876</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>124097</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>857100</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>165191</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>59982494</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>166185974</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>193929834</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>19822095</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>2738905</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>6117211</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>3974432</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187" s="0" t="n">
         <v>8955</v>
       </c>
-      <c r="G73" s="12" t="n">
+      <c r="D187" s="0" t="n">
         <v>78459</v>
       </c>
-      <c r="H73" s="12" t="n">
-        <v>16886112</v>
-      </c>
-      <c r="I73" s="12" t="n">
+      <c r="E187" s="0" t="n">
         <v>1963635</v>
       </c>
-      <c r="J73" s="12" t="n">
+      <c r="F187" s="0" t="n">
         <v>261100</v>
       </c>
-      <c r="K73" s="12" t="n">
+      <c r="G187" s="0" t="n">
         <v>1382845</v>
       </c>
-      <c r="L73" s="12" t="n">
+      <c r="H187" s="0" t="n">
         <v>2190708</v>
       </c>
-      <c r="M73" s="12" t="n">
+      <c r="I187" s="0" t="n">
         <v>58494</v>
       </c>
-      <c r="N73" s="12" t="n">
-        <v>93959</v>
-      </c>
-      <c r="O73" s="12" t="n">
-        <v>44461</v>
-      </c>
-      <c r="P73" s="12" t="n">
-        <v>16083</v>
-      </c>
-      <c r="Q73" s="12" t="n">
-        <v>386865</v>
-      </c>
-      <c r="R73" s="12" t="n">
-        <v>23592</v>
-      </c>
-      <c r="S73" s="12" t="n">
-        <v>183121</v>
-      </c>
-      <c r="T73" s="12" t="n">
-        <v>58552</v>
-      </c>
-      <c r="U73" s="12" t="n">
-        <v>526895</v>
-      </c>
-      <c r="V73" s="12" t="n">
-        <v>738542</v>
-      </c>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="13" t="n">
-        <f aca="false">C73/C72*100</f>
-        <v>0.273009520355593</v>
-      </c>
-      <c r="D74" s="13" t="n">
-        <f aca="false">D73/D72*100</f>
-        <v>0.257245244399885</v>
-      </c>
-      <c r="E74" s="13" t="n">
-        <f aca="false">E73/E72*100</f>
-        <v>0.281344875495175</v>
-      </c>
-      <c r="F74" s="13" t="n">
-        <f aca="false">F73/F72*100</f>
-        <v>0.0149271273644349</v>
-      </c>
-      <c r="G74" s="13" t="n">
-        <f aca="false">G73/G72*100</f>
-        <v>0.0471892867189461</v>
-      </c>
-      <c r="H74" s="13" t="n">
-        <f aca="false">H73/H72*100</f>
-        <v>9.02881007563608</v>
-      </c>
-      <c r="I74" s="13" t="n">
-        <f aca="false">I73/I72*100</f>
-        <v>1.00239942149373</v>
-      </c>
-      <c r="J74" s="13" t="n">
-        <f aca="false">J73/J72*100</f>
-        <v>1.30009194254201</v>
-      </c>
-      <c r="K74" s="13" t="n">
-        <f aca="false">K73/K72*100</f>
-        <v>33.5499484442288</v>
-      </c>
-      <c r="L74" s="13" t="n">
-        <f aca="false">L73/L72*100</f>
-        <v>26.3689138038057</v>
-      </c>
-      <c r="M74" s="13" t="n">
-        <f aca="false">M73/M72*100</f>
-        <v>1.45041094232823</v>
-      </c>
-      <c r="N74" s="13" t="n">
-        <f aca="false">N73/N72*100</f>
-        <v>1.34961235577804</v>
-      </c>
-      <c r="O74" s="13" t="n">
-        <f aca="false">O73/O72*100</f>
-        <v>2.13800034622709</v>
-      </c>
-      <c r="P74" s="13" t="n">
-        <f aca="false">P73/P72*100</f>
-        <v>2.25888321308335</v>
-      </c>
-      <c r="Q74" s="13" t="n">
-        <f aca="false">Q73/Q72*100</f>
-        <v>22.4077183589046</v>
-      </c>
-      <c r="R74" s="13" t="n">
-        <f aca="false">R73/R72*100</f>
-        <v>1.13696001989391</v>
-      </c>
-      <c r="S74" s="13" t="n">
-        <f aca="false">S73/S72*100</f>
-        <v>8.87561173385137</v>
-      </c>
-      <c r="T74" s="13" t="n">
-        <f aca="false">T73/T72*100</f>
-        <v>1.04540640370342</v>
-      </c>
-      <c r="U74" s="13" t="n">
-        <f aca="false">U73/U72*100</f>
-        <v>26.6567270044971</v>
-      </c>
-      <c r="V74" s="13" t="n">
-        <f aca="false">V73/V72*100</f>
-        <v>10.8058543477081</v>
-      </c>
-      <c r="W74" s="13" t="e">
-        <f aca="false">W73/W72*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X74" s="13" t="e">
-        <f aca="false">X73/X72*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y74" s="13" t="e">
-        <f aca="false">Y73/Y72*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z74" s="13" t="e">
-        <f aca="false">Z73/Z72*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA74" s="13" t="e">
-        <f aca="false">AA73/AA72*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB74" s="13" t="e">
-        <f aca="false">AB73/AB72*100</f>
-        <v>#DIV/0!</v>
+    <row r="188" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <f aca="false">(C186-C185)/C184*100</f>
+        <v>32.0151826971207</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <f aca="false">(D186-D185)/D184*100</f>
+        <v>16.8682209982937</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <f aca="false">(E186-E185)/E184*100</f>
+        <v>45.9131682435008</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <f aca="false">(F186-F185)/F184*100</f>
+        <v>38.8494908305177</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <f aca="false">(G186-G185)/G184*100</f>
+        <v>63.4392673015103</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <f aca="false">(H186-H185)/H184*100</f>
+        <v>63.3144232629134</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <f aca="false">(I186-I185)/I184*100</f>
+        <v>94.4535307615364</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <f aca="false">C185/C184*100</f>
+        <v>67.9698901755148</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <f aca="false">D185/D184*100</f>
+        <v>83.0845897149873</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <f aca="false">E185/E184*100</f>
+        <v>53.0844323350055</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <f aca="false">F185/F184*100</f>
+        <v>59.8504172269402</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <f aca="false">G185/G184*100</f>
+        <v>3.01078425426093</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <f aca="false">H185/H184*100</f>
+        <v>10.3166629332809</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <f aca="false">I185/I184*100</f>
+        <v>4.09605829613536</v>
+      </c>
+      <c r="K189" s="15"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N190" s="15"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K195" s="15"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N196" s="15"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K201" s="15"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N202" s="15"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H213" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2"/>
+      <c r="B214" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>139.356567</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>75.310287</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>94.328972</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>94.334328</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>269.093048</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>266.187988</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2"/>
+      <c r="B215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>180.121658</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>91.399185</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>112.148422</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>112.339745</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>300.320618</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>295.78891</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2"/>
+      <c r="B216" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>148.199875</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>77.980408</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>97.149757</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>97.305099</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>419.085419</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>415.921173</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>45.396515</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>45.946568</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>44.010948</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2"/>
+      <c r="B219" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>45.762241</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>47.177517</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>45.055252</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2"/>
+      <c r="B220" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>48.696743</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>46.146652</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>0.248044</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>2.281977</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>1.106442</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>1.006844</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>2.554012</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>2.388601</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2"/>
+      <c r="B223" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>70.7575</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>46.727966</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>88.04274</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>87.708481</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>158.641571</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>158.252945</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2"/>
+      <c r="B224" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>70.924904</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>46.739304</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>127.960274</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>127.132393</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>172.832306</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>172.233948</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>1.705571</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>4.179533</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>3.947019</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>4.00941</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>2.343842</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>2.04491</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2"/>
+      <c r="B227" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>119.967392</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>102.342987</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>171.0737</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>171.197632</v>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>289.490143</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>282.10434</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2"/>
+      <c r="B228" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>119.520752</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>102.804207</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>189.969498</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>189.737457</v>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>312.757507</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>304.240417</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:A24"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A226:A228"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
